--- a/data.xlsx
+++ b/data.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,7776 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1783.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1757.3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1742.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1743</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1686.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1670</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1666.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1648.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1642.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1625</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1641.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1639.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1639</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1631.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1629.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1609.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1606.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1605.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1600.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1598.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1570.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1569.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1569.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1567</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1555.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1549.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1542.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1523.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1515.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1512.9</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1512.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1511.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1509.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1502</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1505.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1500.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1501</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>IR Iran</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1499.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1487.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1474</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1486.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1488</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1479.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1476.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1475.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1478</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1468.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1462.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Korea Republic</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1460.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1458.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1457.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1452.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1449.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1466</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1441.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1432.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1432.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1427.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1425.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1425.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1423.4</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1427</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1418.7</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1415.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1413.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1409</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1410.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1404.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1427</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1404.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1400.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1397.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1397.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1384</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1392.9</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Congo DR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1376.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1374.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1369.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1368.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1364.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1353</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1362.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1360</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1361.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1352.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1341.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1340.56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1339.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1331.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cabo Verde</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1330.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1330.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1325.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Curaçao</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1323.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>China PR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1322.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1321.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1304.12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1301.51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1300.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Benin</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1293.1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1290.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1286.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1283.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1280.99</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1280.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1278.1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1276.79</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1273.28</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1259.51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1258.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1256.08</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1255.88</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1251.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1244.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1240.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Kyrgyz Republic</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1240.08</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1238.89</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1238.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1224.76</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1205.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1201.33</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1196.8</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1184.36</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1178.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1175.5</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1171.19</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Korea DPR</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1169.96</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1168.53</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1168.44</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1165.91</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Faroe Islands</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1165.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1162.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1162.39</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1161.58</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1161.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1157.64</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1156.26</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1177</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1151.73</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1151.1</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1149.43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1149.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1147.35</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1135.94</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1135.88</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1134</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1129.3</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Antigua and Barbuda</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1129.02</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1123.69</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1106.51</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1106.44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1105.2</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1104.14</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1102.84</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>St. Kitts and Nevis</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1091.12</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1089.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1088.05</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1081.66</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1081.26</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1079.41</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Chinese Taipei</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1078.48</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1075.64</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Solomon Islands</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1072.78</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1070.54</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1069.91</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1060.51</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1056.3</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1052.24</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1051.82</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1047.29</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1043.45</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1040.02</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1039.24</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1038.31</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1036.22</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>New Caledonia</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1035.12</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1034.9</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1020.27</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Grenada</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1017.57</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Tahiti</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1014.27</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Barbados</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1010.95</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>996.27</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Vanuatu</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>995.62</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>990.65</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>990.55</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>St. Vincent and the Grenadines</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>989.32</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>987.78</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>South Sudan</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>984.19</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Belize</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>977.95</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>967.88</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>964.94</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>964.07</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>963.79</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>955.89</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>St. Lucia</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>953.45</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>948.16</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Puerto Rico</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>938.86</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Montserrat</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>933.64</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>923.03</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>922.1</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>918.91</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>917.38</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Laos</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>912.07</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Liechtenstein</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>911.05</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Bhutan</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>910.96</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Dominica</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>904.26</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Brunei Darussalam</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>903.9</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>São Tomé and Príncipe</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>903.31</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>American Samoa</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>900.27</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>896.97</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Samoa</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>894.26</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>884.44</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Gibraltar</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>880.16</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Timor-Leste</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>879.43</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>879.13</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Guam</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>872.83</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>866.81</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Seychelles</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>865.69</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Bahamas</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>861.84</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Tonga</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>861.81</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Eritrea</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>855.56</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>853.07</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>850.1</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Turks and Caicos Islands</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>843.65</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>US Virgin Islands</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>829.13</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>British Virgin Islands</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>826.27</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Anguilla</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>805.42</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>13245</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>07 April 2021</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>804.71</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
